--- a/super.xlsx
+++ b/super.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -412,7 +412,7 @@
       </c>
       <c r="D2" s="1" t="inlineStr"/>
       <c r="E2" t="n">
-        <v>16700</v>
+        <v>18350</v>
       </c>
     </row>
     <row r="3">
@@ -425,7 +425,7 @@
       </c>
       <c r="D3" s="1" t="inlineStr"/>
       <c r="E3" t="n">
-        <v>92440</v>
+        <v>46050</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21570</v>
+        <v>9610</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-729</v>
+        <v>-225</v>
       </c>
     </row>
     <row r="6">
@@ -472,76 +472,70 @@
       </c>
       <c r="D6" s="1" t="inlineStr"/>
       <c r="E6" t="n">
-        <v>355</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Other Current Assets</t>
         </is>
       </c>
       <c r="C7" s="1" t="inlineStr">
         <is>
-          <t>Finished Goods</t>
+          <t>Miscellaneous Current Assets</t>
         </is>
       </c>
       <c r="D7" s="1" t="inlineStr"/>
       <c r="E7" t="n">
-        <v>1110</v>
+        <v>3410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>Other Current Assets</t>
-        </is>
-      </c>
-      <c r="C8" s="1" t="inlineStr">
-        <is>
-          <t>Miscellaneous Current Assets</t>
-        </is>
-      </c>
+          <t>Total Current Assets</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="inlineStr"/>
       <c r="D8" s="1" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>4240</v>
+        <v>78660</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="inlineStr">
         <is>
-          <t>Total Current Assets</t>
-        </is>
-      </c>
-      <c r="C9" s="1" t="inlineStr"/>
-      <c r="D9" s="1" t="inlineStr"/>
+          <t>Net Property, Plant &amp; Equipment</t>
+        </is>
+      </c>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Property, Plant &amp; Equipment - Gross</t>
+        </is>
+      </c>
+      <c r="D9" s="1" t="inlineStr">
+        <is>
+          <t>Buildings</t>
+        </is>
+      </c>
       <c r="E9" t="n">
-        <v>135680</v>
+        <v>13330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n"/>
-      <c r="B10" s="1" t="inlineStr">
-        <is>
-          <t>Net Property, Plant &amp; Equipment</t>
-        </is>
-      </c>
-      <c r="C10" s="1" t="inlineStr">
-        <is>
-          <t>Property, Plant &amp; Equipment - Gross</t>
-        </is>
-      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="inlineStr">
         <is>
-          <t>Buildings</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>30180</v>
-      </c>
+          <t>Construction in Progress</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
@@ -549,7 +543,7 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="inlineStr">
         <is>
-          <t>Construction in Progress</t>
+          <t>Leases</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -560,10 +554,12 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="inlineStr">
         <is>
-          <t>Leases</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
+          <t>Computer Software and Equipment</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>10920</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
@@ -571,359 +567,363 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="inlineStr">
         <is>
-          <t>Computer Software and Equipment</t>
+          <t>Other Property, Plant &amp; Equipment</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>30120</v>
+        <v>1950</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="n"/>
-      <c r="D14" s="1" t="inlineStr">
-        <is>
-          <t>Other Property, Plant &amp; Equipment</t>
-        </is>
-      </c>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Accumulated Depreciation</t>
+        </is>
+      </c>
+      <c r="D14" s="1" t="inlineStr"/>
       <c r="E14" t="n">
-        <v>5370</v>
+        <v>8860</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
-      <c r="B15" s="1" t="n"/>
+      <c r="B15" s="1" t="inlineStr">
+        <is>
+          <t>Total Investments and Advances</t>
+        </is>
+      </c>
       <c r="C15" s="1" t="inlineStr">
         <is>
-          <t>Accumulated Depreciation</t>
+          <t>LT Investment - Affiliate Companies</t>
         </is>
       </c>
       <c r="D15" s="1" t="inlineStr"/>
-      <c r="E15" t="n">
-        <v>22790</v>
-      </c>
+      <c r="E15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="inlineStr">
         <is>
-          <t>Total Investments and Advances</t>
-        </is>
-      </c>
-      <c r="C16" s="1" t="inlineStr">
-        <is>
-          <t>LT Investment - Affiliate Companies</t>
-        </is>
-      </c>
+          <t>Long-Term Note Receivable</t>
+        </is>
+      </c>
+      <c r="C16" s="1" t="inlineStr"/>
       <c r="D16" s="1" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>1330</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
-      <c r="B17" s="1" t="n"/>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>Intangible Assets</t>
+        </is>
+      </c>
       <c r="C17" s="1" t="inlineStr">
         <is>
-          <t>Other Long-Term Investments</t>
+          <t>Net Goodwill</t>
         </is>
       </c>
       <c r="D17" s="1" t="inlineStr"/>
       <c r="E17" t="n">
-        <v>12560</v>
+        <v>15600</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
-      <c r="B18" s="1" t="inlineStr">
-        <is>
-          <t>Intangible Assets</t>
-        </is>
-      </c>
+      <c r="B18" s="1" t="n"/>
       <c r="C18" s="1" t="inlineStr">
         <is>
-          <t>Net Goodwill</t>
+          <t>Net Other Intangibles</t>
         </is>
       </c>
       <c r="D18" s="1" t="inlineStr"/>
       <c r="E18" t="n">
-        <v>17890</v>
+        <v>4610</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
-      <c r="B19" s="1" t="n"/>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>Other Assets</t>
+        </is>
+      </c>
       <c r="C19" s="1" t="inlineStr">
         <is>
-          <t>Net Other Intangibles</t>
+          <t>Tangible Other Assets</t>
         </is>
       </c>
       <c r="D19" s="1" t="inlineStr"/>
       <c r="E19" t="n">
-        <v>2220</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="inlineStr">
         <is>
-          <t>Other Assets</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="inlineStr">
-        <is>
-          <t>Tangible Other Assets</t>
-        </is>
-      </c>
+          <t>Total Assets</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="inlineStr"/>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" t="n">
-        <v>2690</v>
+        <v>129190</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="n"/>
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Liabilities &amp; Shareholders' Equity</t>
+        </is>
+      </c>
       <c r="B21" s="1" t="inlineStr">
         <is>
-          <t>Total Assets</t>
-        </is>
-      </c>
-      <c r="C21" s="1" t="inlineStr"/>
+          <t>ST Debt &amp; Current Portion LT Debt</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Short Term Debt</t>
+        </is>
+      </c>
       <c r="D21" s="1" t="inlineStr"/>
       <c r="E21" t="n">
-        <v>232790</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Liabilities &amp; Shareholders' Equity</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>Accounts Payable</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr"/>
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Current Portion of Long Term Debt</t>
+        </is>
+      </c>
       <c r="D22" s="1" t="inlineStr"/>
       <c r="E22" t="n">
-        <v>1070</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="inlineStr">
         <is>
-          <t>Income Tax Payable</t>
+          <t>Accounts Payable</t>
         </is>
       </c>
       <c r="C23" s="1" t="inlineStr"/>
       <c r="D23" s="1" t="inlineStr"/>
       <c r="E23" t="n">
-        <v>69</v>
+        <v>436</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="1" t="inlineStr">
         <is>
-          <t>Other Current Liabilities</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Accrued Payroll</t>
-        </is>
-      </c>
+          <t>Income Tax Payable</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr"/>
       <c r="D24" s="1" t="inlineStr"/>
       <c r="E24" t="n">
-        <v>6840</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>Other Current Liabilities</t>
+        </is>
+      </c>
       <c r="C25" s="1" t="inlineStr">
         <is>
-          <t>Miscellaneous Current Liabilities</t>
+          <t>Accrued Payroll</t>
         </is>
       </c>
       <c r="D25" s="1" t="inlineStr"/>
       <c r="E25" t="n">
-        <v>23330</v>
+        <v>3070</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Total Current Liabilities</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr"/>
+      <c r="B26" s="1" t="n"/>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Miscellaneous Current Liabilities</t>
+        </is>
+      </c>
       <c r="D26" s="1" t="inlineStr"/>
       <c r="E26" t="n">
-        <v>34620</v>
+        <v>9890</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n"/>
       <c r="B27" s="1" t="inlineStr">
         <is>
-          <t>Long-Term Debt</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Long-Term Debt excl. Capitalized Leases</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Non-Convertible Debt</t>
-        </is>
-      </c>
+          <t>Total Current Liabilities</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr"/>
+      <c r="D27" s="1" t="inlineStr"/>
       <c r="E27" t="n">
-        <v>3950</v>
+        <v>16780</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>Long-Term Debt</t>
+        </is>
+      </c>
       <c r="C28" s="1" t="inlineStr">
         <is>
-          <t>Capitalized Lease Obligations</t>
-        </is>
-      </c>
-      <c r="D28" s="1" t="inlineStr"/>
+          <t>Long-Term Debt excl. Capitalized Leases</t>
+        </is>
+      </c>
+      <c r="D28" s="1" t="inlineStr">
+        <is>
+          <t>Non-Convertible Debt</t>
+        </is>
+      </c>
       <c r="E28" t="n">
-        <v>62</v>
+        <v>2990</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>Deferred Taxes</t>
-        </is>
-      </c>
+      <c r="B29" s="1" t="n"/>
       <c r="C29" s="1" t="inlineStr">
         <is>
-          <t>Deferred Taxes - Credit</t>
+          <t>Capitalized Lease Obligations</t>
         </is>
       </c>
       <c r="D29" s="1" t="inlineStr"/>
       <c r="E29" t="n">
-        <v>1260</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Deferred Taxes</t>
+        </is>
+      </c>
       <c r="C30" s="1" t="inlineStr">
         <is>
-          <t>Deferred Taxes - Debit</t>
+          <t>Deferred Taxes - Credit</t>
         </is>
       </c>
       <c r="D30" s="1" t="inlineStr"/>
       <c r="E30" t="n">
-        <v>737</v>
+        <v>758</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="inlineStr">
-        <is>
-          <t>Other Liabilities</t>
-        </is>
-      </c>
+      <c r="B31" s="1" t="n"/>
       <c r="C31" s="1" t="inlineStr">
         <is>
-          <t>Other Liabilities (excl. Deferred Income)</t>
+          <t>Deferred Taxes - Debit</t>
         </is>
       </c>
       <c r="D31" s="1" t="inlineStr"/>
       <c r="E31" t="n">
-        <v>14870</v>
+        <v>176</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n"/>
-      <c r="B32" s="1" t="n"/>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>Other Liabilities</t>
+        </is>
+      </c>
       <c r="C32" s="1" t="inlineStr">
         <is>
-          <t>Deferred Income</t>
+          <t>Other Liabilities (excl. Deferred Income)</t>
         </is>
       </c>
       <c r="D32" s="1" t="inlineStr"/>
       <c r="E32" t="n">
-        <v>396</v>
+        <v>4460</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n"/>
-      <c r="B33" s="1" t="inlineStr">
-        <is>
-          <t>Total Liabilities</t>
-        </is>
-      </c>
-      <c r="C33" s="1" t="inlineStr"/>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="inlineStr">
+        <is>
+          <t>Deferred Income</t>
+        </is>
+      </c>
       <c r="D33" s="1" t="inlineStr"/>
       <c r="E33" t="n">
-        <v>55160</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n"/>
       <c r="B34" s="1" t="inlineStr">
         <is>
-          <t>Common Equity (Total)</t>
-        </is>
-      </c>
-      <c r="C34" s="1" t="inlineStr">
-        <is>
-          <t>Common Stock Par/Carry Value</t>
-        </is>
-      </c>
+          <t>Total Liabilities</t>
+        </is>
+      </c>
+      <c r="C34" s="1" t="inlineStr"/>
       <c r="D34" s="1" t="inlineStr"/>
       <c r="E34" t="n">
-        <v>0.695556</v>
+        <v>25330</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n"/>
-      <c r="B35" s="1" t="n"/>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>Common Equity (Total)</t>
+        </is>
+      </c>
       <c r="C35" s="1" t="inlineStr">
         <is>
-          <t>Additional Paid-In Capital/Capital Surplus</t>
+          <t>Common Stock Par/Carry Value</t>
         </is>
       </c>
       <c r="D35" s="1" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>0.68</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n"/>
       <c r="B36" s="1" t="n"/>
       <c r="C36" s="1" t="inlineStr">
         <is>
-          <t>Retained Earnings</t>
+          <t>Additional Paid-In Capital/Capital Surplus</t>
         </is>
       </c>
       <c r="D36" s="1" t="inlineStr"/>
-      <c r="E36" t="n">
-        <v>134890</v>
-      </c>
+      <c r="E36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n"/>
       <c r="B37" s="1" t="n"/>
       <c r="C37" s="1" t="inlineStr">
         <is>
-          <t>Cumulative Translation Adjustment/Unrealized For. Exch. Gain</t>
+          <t>Retained Earnings</t>
         </is>
       </c>
       <c r="D37" s="1" t="inlineStr"/>
       <c r="E37" t="n">
-        <v>-1880</v>
+        <v>75070</v>
       </c>
     </row>
     <row r="38">
@@ -931,12 +931,12 @@
       <c r="B38" s="1" t="n"/>
       <c r="C38" s="1" t="inlineStr">
         <is>
-          <t>Unrealized Gain/Loss Marketable Securities</t>
+          <t>Cumulative Translation Adjustment/Unrealized For. Exch. Gain</t>
         </is>
       </c>
       <c r="D38" s="1" t="inlineStr"/>
       <c r="E38" t="n">
-        <v>-688</v>
+        <v>-980</v>
       </c>
     </row>
     <row r="39">
@@ -944,67 +944,80 @@
       <c r="B39" s="1" t="n"/>
       <c r="C39" s="1" t="inlineStr">
         <is>
-          <t>Other Appropriated Reserves</t>
+          <t>Unrealized Gain/Loss Marketable Securities</t>
         </is>
       </c>
       <c r="D39" s="1" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>421</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n"/>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>Total Shareholders' Equity</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr"/>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="inlineStr">
+        <is>
+          <t>Other Appropriated Reserves</t>
+        </is>
+      </c>
       <c r="D40" s="1" t="inlineStr"/>
-      <c r="E40" t="n">
-        <v>177630</v>
-      </c>
+      <c r="E40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n"/>
       <c r="B41" s="1" t="inlineStr">
         <is>
-          <t>Total Equity</t>
+          <t>Total Shareholders' Equity</t>
         </is>
       </c>
       <c r="C41" s="1" t="inlineStr"/>
       <c r="D41" s="1" t="inlineStr"/>
       <c r="E41" t="n">
-        <v>177630</v>
+        <v>103860</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n"/>
       <c r="B42" s="1" t="inlineStr">
         <is>
-          <t>Liabilities &amp; Shareholders' Equity</t>
+          <t>Total Equity</t>
         </is>
       </c>
       <c r="C42" s="1" t="inlineStr"/>
       <c r="D42" s="1" t="inlineStr"/>
       <c r="E42" t="n">
-        <v>232790</v>
+        <v>103860</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n"/>
+      <c r="B43" s="1" t="inlineStr">
+        <is>
+          <t>Liabilities &amp; Shareholders' Equity</t>
+        </is>
+      </c>
+      <c r="C43" s="1" t="inlineStr"/>
+      <c r="D43" s="1" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>129190</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="A22:A42"/>
+    <mergeCell ref="A2:A20"/>
+    <mergeCell ref="A21:A43"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B34:B39"/>
+    <mergeCell ref="B9:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B35:B40"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="C10:C14"/>
+    <mergeCell ref="C9:C13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
